--- a/html_support_scirpt_making_file.xlsx
+++ b/html_support_scirpt_making_file.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7500"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="168">
   <si>
     <t>login_page.jpg</t>
   </si>
@@ -463,19 +464,83 @@
   </si>
   <si>
     <t>notepad</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>APIs &amp; Services =&gt;</t>
+  </si>
+  <si>
+    <t>Support=&gt;</t>
+  </si>
+  <si>
+    <t>IAM &amp; admin=&gt;</t>
+  </si>
+  <si>
+    <t>Getting started</t>
+  </si>
+  <si>
+    <t>Security=&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Pub/Sub=&gt;</t>
+  </si>
+  <si>
+    <t>IoT Core</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Natural Languange</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Video Intelligence</t>
+  </si>
+  <si>
+    <t>Tables=&gt;</t>
+  </si>
+  <si>
+    <t>Talent Solution =&gt;</t>
+  </si>
+  <si>
+    <t>Data Labeling=&gt;</t>
+  </si>
+  <si>
+    <t>Google Maps=&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,7 +551,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -494,12 +559,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1201,6 +1287,41 @@
         <v>147</v>
       </c>
     </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1210,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2339,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D13" workbookViewId="0">
       <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2771,4 +2892,143 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F6:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:8">
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8">
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>